--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8694479999999999</v>
+        <v>0.952391</v>
       </c>
       <c r="N2">
-        <v>2.608344</v>
+        <v>2.857173</v>
       </c>
       <c r="O2">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="P2">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="Q2">
-        <v>35.47154561709599</v>
+        <v>10.61434785320433</v>
       </c>
       <c r="R2">
-        <v>319.2439105538639</v>
+        <v>95.529130678839</v>
       </c>
       <c r="S2">
-        <v>0.04305033515526559</v>
+        <v>0.01882120872008637</v>
       </c>
       <c r="T2">
-        <v>0.04305033515526559</v>
+        <v>0.01882120872008637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.531665</v>
       </c>
       <c r="O3">
-        <v>0.5849951330524047</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="P3">
-        <v>0.5849951330524048</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="Q3">
-        <v>129.623581036235</v>
+        <v>35.40996920039944</v>
       </c>
       <c r="R3">
-        <v>1166.612229326115</v>
+        <v>318.689722803595</v>
       </c>
       <c r="S3">
-        <v>0.1573187328196413</v>
+        <v>0.06278844732711041</v>
       </c>
       <c r="T3">
-        <v>0.1573187328196414</v>
+        <v>0.06278844732711041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H4">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J4">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.384523666666666</v>
+        <v>2.346528</v>
       </c>
       <c r="N4">
-        <v>4.153570999999999</v>
+        <v>7.039584</v>
       </c>
       <c r="O4">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="P4">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="Q4">
-        <v>56.48548780388899</v>
+        <v>26.151931758368</v>
       </c>
       <c r="R4">
-        <v>508.3693902350009</v>
+        <v>235.367385825312</v>
       </c>
       <c r="S4">
-        <v>0.06855408015246134</v>
+        <v>0.04637222869129046</v>
       </c>
       <c r="T4">
-        <v>0.06855408015246134</v>
+        <v>0.04637222869129047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8694479999999999</v>
+        <v>0.952391</v>
       </c>
       <c r="N5">
-        <v>2.608344</v>
+        <v>2.857173</v>
       </c>
       <c r="O5">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="P5">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="Q5">
-        <v>40.18573962328799</v>
+        <v>44.019351065921</v>
       </c>
       <c r="R5">
-        <v>361.6716566095919</v>
+        <v>396.174159593289</v>
       </c>
       <c r="S5">
-        <v>0.04877175575938204</v>
+        <v>0.07805447923815149</v>
       </c>
       <c r="T5">
-        <v>0.04877175575938204</v>
+        <v>0.07805447923815148</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>138.659493</v>
       </c>
       <c r="I6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J6">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.531665</v>
       </c>
       <c r="O6">
-        <v>0.5849951330524047</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="P6">
-        <v>0.5849951330524048</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="Q6">
         <v>146.8506484828717</v>
@@ -818,10 +818,10 @@
         <v>1321.655836345845</v>
       </c>
       <c r="S6">
-        <v>0.1782265059210941</v>
+        <v>0.2603934545956844</v>
       </c>
       <c r="T6">
-        <v>0.1782265059210941</v>
+        <v>0.2603934545956843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>138.659493</v>
       </c>
       <c r="I7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J7">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.384523666666666</v>
+        <v>2.346528</v>
       </c>
       <c r="N7">
-        <v>4.153570999999999</v>
+        <v>7.039584</v>
       </c>
       <c r="O7">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="P7">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="Q7">
-        <v>63.99244988883365</v>
+        <v>108.456127596768</v>
       </c>
       <c r="R7">
-        <v>575.932048999503</v>
+        <v>976.1051483709119</v>
       </c>
       <c r="S7">
-        <v>0.0776649668683472</v>
+        <v>0.1923128432101323</v>
       </c>
       <c r="T7">
-        <v>0.0776649668683472</v>
+        <v>0.1923128432101323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H8">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J8">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8694479999999999</v>
+        <v>0.952391</v>
       </c>
       <c r="N8">
-        <v>2.608344</v>
+        <v>2.857173</v>
       </c>
       <c r="O8">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="P8">
-        <v>0.1600841558454311</v>
+        <v>0.1470615060759953</v>
       </c>
       <c r="Q8">
-        <v>56.24488035636799</v>
+        <v>28.30263128802267</v>
       </c>
       <c r="R8">
-        <v>506.203923207312</v>
+        <v>254.723681592204</v>
       </c>
       <c r="S8">
-        <v>0.0682620649307835</v>
+        <v>0.05018581811775742</v>
       </c>
       <c r="T8">
-        <v>0.0682620649307835</v>
+        <v>0.05018581811775742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H9">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J9">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.531665</v>
       </c>
       <c r="O9">
-        <v>0.5849951330524047</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="P9">
-        <v>0.5849951330524048</v>
+        <v>0.4906041777350729</v>
       </c>
       <c r="Q9">
-        <v>205.5355265724078</v>
+        <v>94.41892389993556</v>
       </c>
       <c r="R9">
-        <v>1849.81973915167</v>
+        <v>849.77031509942</v>
       </c>
       <c r="S9">
-        <v>0.2494498943116692</v>
+        <v>0.1674222758122781</v>
       </c>
       <c r="T9">
-        <v>0.2494498943116693</v>
+        <v>0.1674222758122781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H10">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J10">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.384523666666666</v>
+        <v>2.346528</v>
       </c>
       <c r="N10">
-        <v>4.153570999999999</v>
+        <v>7.039584</v>
       </c>
       <c r="O10">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="P10">
-        <v>0.2549207111021641</v>
+        <v>0.3623343161889319</v>
       </c>
       <c r="Q10">
-        <v>89.56529658153976</v>
+        <v>69.73282694924799</v>
       </c>
       <c r="R10">
-        <v>806.0876692338579</v>
+        <v>627.595442543232</v>
       </c>
       <c r="S10">
-        <v>0.1087016640813556</v>
+        <v>0.1236492442875091</v>
       </c>
       <c r="T10">
-        <v>0.1087016640813556</v>
+        <v>0.1236492442875091</v>
       </c>
     </row>
   </sheetData>
